--- a/Data/tabla-copaAmerica.xlsx
+++ b/Data/tabla-copaAmerica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TablaCopa\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CopaDoctus\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,19 +178,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,7 +475,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -522,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -550,7 +553,7 @@
       </c>
       <c r="K2" s="2">
         <f>(B2*$N$2)+(C2*$N$3)+(D2*$N$4)+(E2*$N$5)+(F2*$N$6)+(G2*$N$7)+(H2*$N$8)+(I2*$N$9)+(J2*$N$10)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -564,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -592,7 +595,7 @@
       </c>
       <c r="K3" s="2">
         <f>(B3*$N$2)+(C3*$N$3)+(D3*$N$4)+(E3*$N$5)+(F3*$N$6)+(G3*$N$7)+(H3*$N$8)+(I3*$N$9)+(J3*$N$10)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
@@ -606,10 +609,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -633,8 +636,8 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K22" si="0">(B4*$N$2)+(C4*$N$3)+(D4*$N$4)+(E4*$N$5)+(F4*$N$6)+(G4*$N$7)+(H4*$N$8)+(I4*$N$9)+(J4*$N$10)</f>
-        <v>35</v>
+        <f>(B4*$N$2)+(C4*$N$3)+(D4*$N$4)+(E4*$N$5)+(F4*$N$6)+(G4*$N$7)+(H4*$N$8)+(I4*$N$9)+(J4*$N$10)</f>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
         <v>3</v>
@@ -648,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -675,8 +678,8 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>(B5*$N$2)+(C5*$N$3)+(D5*$N$4)+(E5*$N$5)+(F5*$N$6)+(G5*$N$7)+(H5*$N$8)+(I5*$N$9)+(J5*$N$10)</f>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -690,10 +693,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -717,8 +720,8 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>(B6*$N$2)+(C6*$N$3)+(D6*$N$4)+(E6*$N$5)+(F6*$N$6)+(G6*$N$7)+(H6*$N$8)+(I6*$N$9)+(J6*$N$10)</f>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
@@ -732,10 +735,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -759,8 +762,8 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>(B7*$N$2)+(C7*$N$3)+(D7*$N$4)+(E7*$N$5)+(F7*$N$6)+(G7*$N$7)+(H7*$N$8)+(I7*$N$9)+(J7*$N$10)</f>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
@@ -771,13 +774,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -801,8 +804,8 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>(B8*$N$2)+(C8*$N$3)+(D8*$N$4)+(E8*$N$5)+(F8*$N$6)+(G8*$N$7)+(H8*$N$8)+(I8*$N$9)+(J8*$N$10)</f>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
         <v>8</v>
@@ -813,13 +816,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -843,8 +846,8 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>(B9*$N$2)+(C9*$N$3)+(D9*$N$4)+(E9*$N$5)+(F9*$N$6)+(G9*$N$7)+(H9*$N$8)+(I9*$N$9)+(J9*$N$10)</f>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -855,14 +858,14 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -885,8 +888,8 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>(B10*$N$2)+(C10*$N$3)+(D10*$N$4)+(E10*$N$5)+(F10*$N$6)+(G10*$N$7)+(H10*$N$8)+(I10*$N$9)+(J10*$N$10)</f>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
@@ -897,7 +900,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
@@ -927,22 +930,22 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
+        <f>(B11*$N$2)+(C11*$N$3)+(D11*$N$4)+(E11*$N$5)+(F11*$N$6)+(G11*$N$7)+(H11*$N$8)+(I11*$N$9)+(J11*$N$10)</f>
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -963,22 +966,22 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>(B12*$N$2)+(C12*$N$3)+(D12*$N$4)+(E12*$N$5)+(F12*$N$6)+(G12*$N$7)+(H12*$N$8)+(I12*$N$9)+(J12*$N$10)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -999,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>(B13*$N$2)+(C13*$N$3)+(D13*$N$4)+(E13*$N$5)+(F13*$N$6)+(G13*$N$7)+(H13*$N$8)+(I13*$N$9)+(J13*$N$10)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1035,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>(B14*$N$2)+(C14*$N$3)+(D14*$N$4)+(E14*$N$5)+(F14*$N$6)+(G14*$N$7)+(H14*$N$8)+(I14*$N$9)+(J14*$N$10)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1071,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>(B15*$N$2)+(C15*$N$3)+(D15*$N$4)+(E15*$N$5)+(F15*$N$6)+(G15*$N$7)+(H15*$N$8)+(I15*$N$9)+(J15*$N$10)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1107,22 +1110,22 @@
         <v>0</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>(B16*$N$2)+(C16*$N$3)+(D16*$N$4)+(E16*$N$5)+(F16*$N$6)+(G16*$N$7)+(H16*$N$8)+(I16*$N$9)+(J16*$N$10)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1143,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>(B17*$N$2)+(C17*$N$3)+(D17*$N$4)+(E17*$N$5)+(F17*$N$6)+(G17*$N$7)+(H17*$N$8)+(I17*$N$9)+(J17*$N$10)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1179,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>(B18*$N$2)+(C18*$N$3)+(D18*$N$4)+(E18*$N$5)+(F18*$N$6)+(G18*$N$7)+(H18*$N$8)+(I18*$N$9)+(J18*$N$10)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1215,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>(B19*$N$2)+(C19*$N$3)+(D19*$N$4)+(E19*$N$5)+(F19*$N$6)+(G19*$N$7)+(H19*$N$8)+(I19*$N$9)+(J19*$N$10)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1251,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>(B20*$N$2)+(C20*$N$3)+(D20*$N$4)+(E20*$N$5)+(F20*$N$6)+(G20*$N$7)+(H20*$N$8)+(I20*$N$9)+(J20*$N$10)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1287,22 +1290,22 @@
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="0"/>
+        <f>(B21*$N$2)+(C21*$N$3)+(D21*$N$4)+(E21*$N$5)+(F21*$N$6)+(G21*$N$7)+(H21*$N$8)+(I21*$N$9)+(J21*$N$10)</f>
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1323,16 +1326,19 @@
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>(B22*$N$2)+(C22*$N$3)+(D22*$N$4)+(E22*$N$5)+(F22*$N$6)+(G22*$N$7)+(H22*$N$8)+(I22*$N$9)+(J22*$N$10)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A27" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/tabla-copaAmerica.xlsx
+++ b/Data/tabla-copaAmerica.xlsx
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="K22" sqref="A1:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -522,16 +522,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" s="2">
         <f>(B2*$N$2)+(C2*$N$3)+(D2*$N$4)+(E2*$N$5)+(F2*$N$6)+(G2*$N$7)+(H2*$N$8)+(I2*$N$9)+(J2*$N$10)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" s="2">
         <f>(B3*$N$2)+(C3*$N$3)+(D3*$N$4)+(E3*$N$5)+(F3*$N$6)+(G3*$N$7)+(H3*$N$8)+(I3*$N$9)+(J3*$N$10)</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
@@ -606,16 +606,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -637,7 +637,7 @@
       </c>
       <c r="K4" s="2">
         <f>(B4*$N$2)+(C4*$N$3)+(D4*$N$4)+(E4*$N$5)+(F4*$N$6)+(G4*$N$7)+(H4*$N$8)+(I4*$N$9)+(J4*$N$10)</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
         <v>3</v>
@@ -648,16 +648,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="K5" s="2">
         <f>(B5*$N$2)+(C5*$N$3)+(D5*$N$4)+(E5*$N$5)+(F5*$N$6)+(G5*$N$7)+(H5*$N$8)+(I5*$N$9)+(J5*$N$10)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -689,17 +689,17 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
+      <c r="A6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -721,7 +721,7 @@
       </c>
       <c r="K6" s="2">
         <f>(B6*$N$2)+(C6*$N$3)+(D6*$N$4)+(E6*$N$5)+(F6*$N$6)+(G6*$N$7)+(H6*$N$8)+(I6*$N$9)+(J6*$N$10)</f>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
@@ -732,16 +732,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="K7" s="2">
         <f>(B7*$N$2)+(C7*$N$3)+(D7*$N$4)+(E7*$N$5)+(F7*$N$6)+(G7*$N$7)+(H7*$N$8)+(I7*$N$9)+(J7*$N$10)</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="K8" s="2">
         <f>(B8*$N$2)+(C8*$N$3)+(D8*$N$4)+(E8*$N$5)+(F8*$N$6)+(G8*$N$7)+(H8*$N$8)+(I8*$N$9)+(J8*$N$10)</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
         <v>8</v>
@@ -816,16 +816,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -847,7 +847,7 @@
       </c>
       <c r="K9" s="2">
         <f>(B9*$N$2)+(C9*$N$3)+(D9*$N$4)+(E9*$N$5)+(F9*$N$6)+(G9*$N$7)+(H9*$N$8)+(I9*$N$9)+(J9*$N$10)</f>
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -858,16 +858,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="K10" s="2">
         <f>(B10*$N$2)+(C10*$N$3)+(D10*$N$4)+(E10*$N$5)+(F10*$N$6)+(G10*$N$7)+(H10*$N$8)+(I10*$N$9)+(J10*$N$10)</f>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
@@ -900,10 +900,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -931,21 +931,21 @@
       </c>
       <c r="K11" s="2">
         <f>(B11*$N$2)+(C11*$N$3)+(D11*$N$4)+(E11*$N$5)+(F11*$N$6)+(G11*$N$7)+(H11*$N$8)+(I11*$N$9)+(J11*$N$10)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -967,21 +967,21 @@
       </c>
       <c r="K12" s="2">
         <f>(B12*$N$2)+(C12*$N$3)+(D12*$N$4)+(E12*$N$5)+(F12*$N$6)+(G12*$N$7)+(H12*$N$8)+(I12*$N$9)+(J12*$N$10)</f>
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1003,21 +1003,21 @@
       </c>
       <c r="K13" s="2">
         <f>(B13*$N$2)+(C13*$N$3)+(D13*$N$4)+(E13*$N$5)+(F13*$N$6)+(G13*$N$7)+(H13*$N$8)+(I13*$N$9)+(J13*$N$10)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1039,18 +1039,18 @@
       </c>
       <c r="K14" s="2">
         <f>(B14*$N$2)+(C14*$N$3)+(D14*$N$4)+(E14*$N$5)+(F14*$N$6)+(G14*$N$7)+(H14*$N$8)+(I14*$N$9)+(J14*$N$10)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1075,21 +1075,21 @@
       </c>
       <c r="K15" s="2">
         <f>(B15*$N$2)+(C15*$N$3)+(D15*$N$4)+(E15*$N$5)+(F15*$N$6)+(G15*$N$7)+(H15*$N$8)+(I15*$N$9)+(J15*$N$10)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1111,21 +1111,21 @@
       </c>
       <c r="K16" s="2">
         <f>(B16*$N$2)+(C16*$N$3)+(D16*$N$4)+(E16*$N$5)+(F16*$N$6)+(G16*$N$7)+(H16*$N$8)+(I16*$N$9)+(J16*$N$10)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1147,21 +1147,21 @@
       </c>
       <c r="K17" s="2">
         <f>(B17*$N$2)+(C17*$N$3)+(D17*$N$4)+(E17*$N$5)+(F17*$N$6)+(G17*$N$7)+(H17*$N$8)+(I17*$N$9)+(J17*$N$10)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1183,21 +1183,21 @@
       </c>
       <c r="K18" s="2">
         <f>(B18*$N$2)+(C18*$N$3)+(D18*$N$4)+(E18*$N$5)+(F18*$N$6)+(G18*$N$7)+(H18*$N$8)+(I18*$N$9)+(J18*$N$10)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1219,21 +1219,21 @@
       </c>
       <c r="K19" s="2">
         <f>(B19*$N$2)+(C19*$N$3)+(D19*$N$4)+(E19*$N$5)+(F19*$N$6)+(G19*$N$7)+(H19*$N$8)+(I19*$N$9)+(J19*$N$10)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
+      <c r="A20" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K20" s="2">
         <f>(B20*$N$2)+(C20*$N$3)+(D20*$N$4)+(E20*$N$5)+(F20*$N$6)+(G20*$N$7)+(H20*$N$8)+(I20*$N$9)+(J20*$N$10)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1263,13 +1263,13 @@
         <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
         <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="K21" s="2">
         <f>(B21*$N$2)+(C21*$N$3)+(D21*$N$4)+(E21*$N$5)+(F21*$N$6)+(G21*$N$7)+(H21*$N$8)+(I21*$N$9)+(J21*$N$10)</f>
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1299,13 +1299,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1327,17 +1327,17 @@
       </c>
       <c r="K22" s="2">
         <f>(B22*$N$2)+(C22*$N$3)+(D22*$N$4)+(E22*$N$5)+(F22*$N$6)+(G22*$N$7)+(H22*$N$8)+(I22*$N$9)+(J22*$N$10)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/tabla-copaAmerica.xlsx
+++ b/Data/tabla-copaAmerica.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="A1:K22"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -552,8 +552,8 @@
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <f>(B2*$N$2)+(C2*$N$3)+(D2*$N$4)+(E2*$N$5)+(F2*$N$6)+(G2*$N$7)+(H2*$N$8)+(I2*$N$9)+(J2*$N$10)</f>
-        <v>80</v>
+        <f t="shared" ref="K2:K22" si="0">(B2*$N$2)+(C2*$N$3)+(D2*$N$4)+(E2*$N$5)+(F2*$N$6)+(G2*$N$7)+(H2*$N$8)+(I2*$N$9)+(J2*$N$10)</f>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -594,8 +594,8 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f>(B3*$N$2)+(C3*$N$3)+(D3*$N$4)+(E3*$N$5)+(F3*$N$6)+(G3*$N$7)+(H3*$N$8)+(I3*$N$9)+(J3*$N$10)</f>
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f>(B4*$N$2)+(C4*$N$3)+(D4*$N$4)+(E4*$N$5)+(F4*$N$6)+(G4*$N$7)+(H4*$N$8)+(I4*$N$9)+(J4*$N$10)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="M4" t="s">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f>(B5*$N$2)+(C5*$N$3)+(D5*$N$4)+(E5*$N$5)+(F5*$N$6)+(G5*$N$7)+(H5*$N$8)+(I5*$N$9)+(J5*$N$10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="M5" t="s">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -720,8 +720,8 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f>(B6*$N$2)+(C6*$N$3)+(D6*$N$4)+(E6*$N$5)+(F6*$N$6)+(G6*$N$7)+(H6*$N$8)+(I6*$N$9)+(J6*$N$10)</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
@@ -762,14 +762,14 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f>(B7*$N$2)+(C7*$N$3)+(D7*$N$4)+(E7*$N$5)+(F7*$N$6)+(G7*$N$7)+(H7*$N$8)+(I7*$N$9)+(J7*$N$10)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
       </c>
       <c r="N7">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f>(B8*$N$2)+(C8*$N$3)+(D8*$N$4)+(E8*$N$5)+(F8*$N$6)+(G8*$N$7)+(H8*$N$8)+(I8*$N$9)+(J8*$N$10)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="M8" t="s">
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f>(B9*$N$2)+(C9*$N$3)+(D9*$N$4)+(E9*$N$5)+(F9*$N$6)+(G9*$N$7)+(H9*$N$8)+(I9*$N$9)+(J9*$N$10)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="M9" t="s">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -888,8 +888,8 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f>(B10*$N$2)+(C10*$N$3)+(D10*$N$4)+(E10*$N$5)+(F10*$N$6)+(G10*$N$7)+(H10*$N$8)+(I10*$N$9)+(J10*$N$10)</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
@@ -903,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -930,8 +930,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f>(B11*$N$2)+(C11*$N$3)+(D11*$N$4)+(E11*$N$5)+(F11*$N$6)+(G11*$N$7)+(H11*$N$8)+(I11*$N$9)+(J11*$N$10)</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -966,8 +966,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <f>(B12*$N$2)+(C12*$N$3)+(D12*$N$4)+(E12*$N$5)+(F12*$N$6)+(G12*$N$7)+(H12*$N$8)+(I12*$N$9)+(J12*$N$10)</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1002,8 +1002,8 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <f>(B13*$N$2)+(C13*$N$3)+(D13*$N$4)+(E13*$N$5)+(F13*$N$6)+(G13*$N$7)+(H13*$N$8)+(I13*$N$9)+(J13*$N$10)</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1038,8 +1038,8 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <f>(B14*$N$2)+(C14*$N$3)+(D14*$N$4)+(E14*$N$5)+(F14*$N$6)+(G14*$N$7)+(H14*$N$8)+(I14*$N$9)+(J14*$N$10)</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f>(B15*$N$2)+(C15*$N$3)+(D15*$N$4)+(E15*$N$5)+(F15*$N$6)+(G15*$N$7)+(H15*$N$8)+(I15*$N$9)+(J15*$N$10)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2">
-        <f>(B16*$N$2)+(C16*$N$3)+(D16*$N$4)+(E16*$N$5)+(F16*$N$6)+(G16*$N$7)+(H16*$N$8)+(I16*$N$9)+(J16*$N$10)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1146,8 +1146,8 @@
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <f>(B17*$N$2)+(C17*$N$3)+(D17*$N$4)+(E17*$N$5)+(F17*$N$6)+(G17*$N$7)+(H17*$N$8)+(I17*$N$9)+(J17*$N$10)</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1182,8 +1182,8 @@
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <f>(B18*$N$2)+(C18*$N$3)+(D18*$N$4)+(E18*$N$5)+(F18*$N$6)+(G18*$N$7)+(H18*$N$8)+(I18*$N$9)+(J18*$N$10)</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <f>(B19*$N$2)+(C19*$N$3)+(D19*$N$4)+(E19*$N$5)+(F19*$N$6)+(G19*$N$7)+(H19*$N$8)+(I19*$N$9)+(J19*$N$10)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1254,8 +1254,8 @@
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <f>(B20*$N$2)+(C20*$N$3)+(D20*$N$4)+(E20*$N$5)+(F20*$N$6)+(G20*$N$7)+(H20*$N$8)+(I20*$N$9)+(J20*$N$10)</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <f>(B21*$N$2)+(C21*$N$3)+(D21*$N$4)+(E21*$N$5)+(F21*$N$6)+(G21*$N$7)+(H21*$N$8)+(I21*$N$9)+(J21*$N$10)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <f>(B22*$N$2)+(C22*$N$3)+(D22*$N$4)+(E22*$N$5)+(F22*$N$6)+(G22*$N$7)+(H22*$N$8)+(I22*$N$9)+(J22*$N$10)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>

--- a/Data/tabla-copaAmerica.xlsx
+++ b/Data/tabla-copaAmerica.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K22" si="0">(B2*$N$2)+(C2*$N$3)+(D2*$N$4)+(E2*$N$5)+(F2*$N$6)+(G2*$N$7)+(H2*$N$8)+(I2*$N$9)+(J2*$N$10)</f>
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
@@ -609,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -637,7 +637,7 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s">
         <v>3</v>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -693,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -721,7 +721,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
@@ -777,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
         <v>8</v>
@@ -819,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -847,7 +847,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
@@ -903,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -931,7 +931,7 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -967,7 +967,7 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1155,7 +1155,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">

--- a/Data/tabla-copaAmerica.xlsx
+++ b/Data/tabla-copaAmerica.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K22" si="0">(B2*$N$2)+(C2*$N$3)+(D2*$N$4)+(E2*$N$5)+(F2*$N$6)+(G2*$N$7)+(H2*$N$8)+(I2*$N$9)+(J2*$N$10)</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
@@ -609,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -637,7 +637,7 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M4" t="s">
         <v>3</v>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -693,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -721,7 +721,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -931,7 +931,7 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Data/tabla-copaAmerica.xlsx
+++ b/Data/tabla-copaAmerica.xlsx
@@ -1047,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">

--- a/Data/tabla-copaAmerica.xlsx
+++ b/Data/tabla-copaAmerica.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -546,14 +546,14 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K22" si="0">(B2*$N$2)+(C2*$N$3)+(D2*$N$4)+(E2*$N$5)+(F2*$N$6)+(G2*$N$7)+(H2*$N$8)+(I2*$N$9)+(J2*$N$10)</f>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -588,14 +588,14 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
@@ -630,14 +630,14 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M4" t="s">
         <v>3</v>
@@ -672,14 +672,14 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -714,14 +714,14 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -756,14 +756,14 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
@@ -882,14 +882,14 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1068,14 +1068,14 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1212,14 +1212,14 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1284,14 +1284,14 @@
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
